--- a/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
+++ b/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pechj/Desktop/Dresser Flip 7 Segment/EM7SEG_DRIVER_L9110S/gerber/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pechj/Documents/Arduino/ECHT-Einsatz/EM7SEG/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD620B-9028-5143-9265-4BCED1BFD707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C087EA-C6E8-CF46-B68F-787EA24A5AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>MCP23017</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>SSOP-28</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>U4-U10</t>
-  </si>
-  <si>
     <t>0805</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>C17513</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3-U10</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -594,13 +594,13 @@
         <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -608,13 +608,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -622,53 +622,53 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
+++ b/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pechj/Documents/Arduino/ECHT-Einsatz/EM7SEG/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\11.72.7.147\pechj\Documents\Arduino\ECHT-Einsatz\EM7SEG\PCB\EM7SEG_DRIVER_L9110S\gerber\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C087EA-C6E8-CF46-B68F-787EA24A5AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -149,13 +148,13 @@
     <t>U2</t>
   </si>
   <si>
-    <t>U3-U10</t>
+    <t>U3-U9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -261,7 +260,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,7 +537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">

--- a/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
+++ b/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\11.72.7.147\pechj\Documents\Arduino\ECHT-Einsatz\EM7SEG\PCB\EM7SEG_DRIVER_L9110S\gerber\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pechj/Documents/Arduino/ECHT-Einsatz/EM7SEG/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38075434-1282-D54F-94B8-56AF6B380356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21720" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Comment</t>
   </si>
@@ -130,9 +131,6 @@
     <t>C72038</t>
   </si>
   <si>
-    <t>C85174</t>
-  </si>
-  <si>
     <t>C49678</t>
   </si>
   <si>
@@ -154,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -260,7 +258,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,11 +535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -571,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -585,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -599,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -613,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -621,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -633,14 +631,12 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">

--- a/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
+++ b/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pechj/Documents/Arduino/ECHT-Einsatz/EM7SEG/PCB/EM7SEG_DRIVER_L9110S/gerber/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38075434-1282-D54F-94B8-56AF6B380356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F244DB-B6C6-F94F-A0F0-93C9D5E4A638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21720" windowHeight="13160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>R5, R6</t>
   </si>
   <si>
-    <t>R1-R4,R8-R21</t>
-  </si>
-  <si>
     <t>L9110S</t>
   </si>
   <si>
@@ -146,7 +143,10 @@
     <t>U2</t>
   </si>
   <si>
-    <t>U3-U9</t>
+    <t>R1, R2, R3, R4,R8, R9, R10, R11, R12, R13, R14, R15, R16, R17, R18, R19, R20, R21</t>
+  </si>
+  <si>
+    <t>U3, U4, U5, U6, U7, U8, U9</t>
   </si>
 </sst>
 </file>
@@ -539,10 +539,13 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -569,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -577,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -597,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -611,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -619,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -628,7 +631,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
@@ -649,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -657,13 +660,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
